--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BC/20/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BC/20/seed4/result_data_RandomForest.xlsx
@@ -553,7 +553,7 @@
         <v>9.43</v>
       </c>
       <c r="C7" t="n">
-        <v>-13.24859999999999</v>
+        <v>-13.6303</v>
       </c>
       <c r="D7" t="n">
         <v>-9.359999999999999</v>
@@ -584,7 +584,7 @@
         <v>-21.5</v>
       </c>
       <c r="B9" t="n">
-        <v>4.923799999999999</v>
+        <v>5.028999999999998</v>
       </c>
       <c r="C9" t="n">
         <v>-11.36</v>
@@ -638,7 +638,7 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-10.68890000000001</v>
+        <v>-10.6802</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -652,7 +652,7 @@
         <v>-22.15</v>
       </c>
       <c r="B13" t="n">
-        <v>6.664499999999999</v>
+        <v>6.486199999999997</v>
       </c>
       <c r="C13" t="n">
         <v>-15.83</v>
@@ -672,7 +672,7 @@
         <v>4.04</v>
       </c>
       <c r="C14" t="n">
-        <v>-13.15489999999999</v>
+        <v>-12.85959999999999</v>
       </c>
       <c r="D14" t="n">
         <v>-7.43</v>
@@ -703,7 +703,7 @@
         <v>-22.39</v>
       </c>
       <c r="B16" t="n">
-        <v>6.365100000000002</v>
+        <v>6.157800000000003</v>
       </c>
       <c r="C16" t="n">
         <v>-13.59</v>
@@ -737,7 +737,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>6.597</v>
+        <v>7.325599999999997</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -757,7 +757,7 @@
         <v>11.01</v>
       </c>
       <c r="C19" t="n">
-        <v>-12.00640000000001</v>
+        <v>-11.94830000000001</v>
       </c>
       <c r="D19" t="n">
         <v>-7.9</v>
@@ -771,7 +771,7 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>8.873900000000006</v>
+        <v>8.797599999999999</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -873,10 +873,10 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>5.992600000000007</v>
+        <v>5.623000000000006</v>
       </c>
       <c r="C26" t="n">
-        <v>-12.8776</v>
+        <v>-13.4281</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -890,10 +890,10 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>5.893200000000003</v>
+        <v>5.554000000000005</v>
       </c>
       <c r="C27" t="n">
-        <v>-12.64379999999999</v>
+        <v>-12.8301</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -924,10 +924,10 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>4.838699999999996</v>
+        <v>4.834499999999997</v>
       </c>
       <c r="C29" t="n">
-        <v>-10.60580000000001</v>
+        <v>-10.68630000000001</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
@@ -1026,7 +1026,7 @@
         <v>-19.24</v>
       </c>
       <c r="B35" t="n">
-        <v>8.596500000000002</v>
+        <v>8.341300000000006</v>
       </c>
       <c r="C35" t="n">
         <v>-13.02</v>
@@ -1043,7 +1043,7 @@
         <v>-18.53</v>
       </c>
       <c r="B36" t="n">
-        <v>8.965600000000002</v>
+        <v>8.722600000000009</v>
       </c>
       <c r="C36" t="n">
         <v>-10.09</v>
@@ -1063,7 +1063,7 @@
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-13.2322</v>
+        <v>-13.3788</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -1080,7 +1080,7 @@
         <v>9.66</v>
       </c>
       <c r="C38" t="n">
-        <v>-12.4816</v>
+        <v>-13.0529</v>
       </c>
       <c r="D38" t="n">
         <v>-9.09</v>
@@ -1196,7 +1196,7 @@
         <v>-22.15</v>
       </c>
       <c r="B45" t="n">
-        <v>5.391900000000003</v>
+        <v>5.317000000000002</v>
       </c>
       <c r="C45" t="n">
         <v>-11</v>
@@ -1233,7 +1233,7 @@
         <v>6.74</v>
       </c>
       <c r="C47" t="n">
-        <v>-12.14639999999999</v>
+        <v>-12.0501</v>
       </c>
       <c r="D47" t="n">
         <v>-8.5</v>
@@ -1301,7 +1301,7 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-12.3185</v>
+        <v>-12.0366</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1318,7 +1318,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.3764</v>
+        <v>-11.4358</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1366,10 +1366,10 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>6.786799999999997</v>
+        <v>6.797199999999992</v>
       </c>
       <c r="C55" t="n">
-        <v>-14.03729999999999</v>
+        <v>-14.1788</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1400,7 +1400,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>5.143499999999997</v>
+        <v>5.140899999999997</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1604,10 +1604,10 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.899599999999993</v>
+        <v>5.927199999999995</v>
       </c>
       <c r="C69" t="n">
-        <v>-11.3604</v>
+        <v>-11.4875</v>
       </c>
       <c r="D69" t="n">
         <v>-6.88</v>
@@ -1624,7 +1624,7 @@
         <v>4.05</v>
       </c>
       <c r="C70" t="n">
-        <v>-11.3321</v>
+        <v>-11.4286</v>
       </c>
       <c r="D70" t="n">
         <v>-7.03</v>
@@ -1723,10 +1723,10 @@
         <v>-20.94</v>
       </c>
       <c r="B76" t="n">
-        <v>5.427800000000003</v>
+        <v>5.471000000000004</v>
       </c>
       <c r="C76" t="n">
-        <v>-11.7018</v>
+        <v>-11.27890000000001</v>
       </c>
       <c r="D76" t="n">
         <v>-7.88</v>
@@ -1757,7 +1757,7 @@
         <v>-20.31</v>
       </c>
       <c r="B78" t="n">
-        <v>9.763600000000002</v>
+        <v>9.829800000000004</v>
       </c>
       <c r="C78" t="n">
         <v>-13.33</v>
@@ -1811,7 +1811,7 @@
         <v>3.85</v>
       </c>
       <c r="C81" t="n">
-        <v>-12.5856</v>
+        <v>-12.8507</v>
       </c>
       <c r="D81" t="n">
         <v>-8.390000000000001</v>
@@ -1825,7 +1825,7 @@
         <v>-22.09</v>
       </c>
       <c r="B82" t="n">
-        <v>5.035500000000003</v>
+        <v>5.309399999999999</v>
       </c>
       <c r="C82" t="n">
         <v>-14.08</v>
@@ -1842,10 +1842,10 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>5.265999999999996</v>
+        <v>5.402199999999997</v>
       </c>
       <c r="C83" t="n">
-        <v>-14.18679999999999</v>
+        <v>-13.72779999999999</v>
       </c>
       <c r="D83" t="n">
         <v>-7.67</v>
@@ -2012,7 +2012,7 @@
         <v>-22.29</v>
       </c>
       <c r="B93" t="n">
-        <v>5.961999999999998</v>
+        <v>5.552899999999999</v>
       </c>
       <c r="C93" t="n">
         <v>-11.3</v>
@@ -2032,7 +2032,7 @@
         <v>4.26</v>
       </c>
       <c r="C94" t="n">
-        <v>-10.04020000000001</v>
+        <v>-10.2002</v>
       </c>
       <c r="D94" t="n">
         <v>-5.14</v>
@@ -2080,7 +2080,7 @@
         <v>-21.32</v>
       </c>
       <c r="B97" t="n">
-        <v>5.733799999999994</v>
+        <v>5.986599999999999</v>
       </c>
       <c r="C97" t="n">
         <v>-13.93</v>
@@ -2134,7 +2134,7 @@
         <v>5.09</v>
       </c>
       <c r="C100" t="n">
-        <v>-12.385</v>
+        <v>-12.50929999999999</v>
       </c>
       <c r="D100" t="n">
         <v>-7.71</v>
@@ -2168,7 +2168,7 @@
         <v>9.01</v>
       </c>
       <c r="C102" t="n">
-        <v>-12.5385</v>
+        <v>-13.249</v>
       </c>
       <c r="D102" t="n">
         <v>-8.630000000000001</v>
